--- a/Output/PBL/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/PBL/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -151,15 +153,47 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -195,10 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2604,4 +2640,1441 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>2352000</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="n">
+        <v>56515</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>45244</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>150698.7617</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>5161039.8321</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>473400.9941</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>30398.6504</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>13461.7598</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="n">
+        <v>193759.89</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>-6421.22</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>8768021.0106</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1099706.7169</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>340517.5742</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>6277432.5157</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>5926881.7228</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>2054672.5553</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>4316857.245</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>46241574.51</v>
+      </c>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="n">
+        <v>-558742</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>2589878</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>44037124</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>34727852.8713</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>149802667.1095</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>170622255.9668</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>125581223.0219</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>121006402.3029</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>111822787.1688</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>120486882.505</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>35768695.42</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>18037734.7109</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>1807297.5509</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>200669.9783</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>3286.97850000001</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>342303.8828</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>292534</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>55912277.9844</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>26978035.59</v>
+      </c>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f>Sum(N2:N3)</f>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f>Sum(O2:O3)</f>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f>Sum(P2:P3)</f>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <f>Sum(Q2:Q3)</f>
+      </c>
+      <c r="R4" s="3" t="str">
+        <f>Sum(R2:R3)</f>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f>Sum(S2:S3)</f>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f>Sum(T2:T3)</f>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f>Sum(U2:U3)</f>
+      </c>
+      <c r="V4" s="3" t="str">
+        <f>Sum(V2:V3)</f>
+      </c>
+      <c r="W4" s="3" t="str">
+        <f>Sum(W2:W3)</f>
+      </c>
+      <c r="X4" s="3" t="str">
+        <f>Sum(X2:X3)</f>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <f>Sum(Y2:Y3)</f>
+      </c>
+      <c r="Z4" s="3" t="str">
+        <f>Sum(Z2:Z3)</f>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <f>Sum(AA2:AA3)</f>
+      </c>
+      <c r="AB4" s="3" t="str">
+        <f>Sum(AB2:AB3)</f>
+      </c>
+      <c r="AC4" s="3" t="str">
+        <f>Sum(AC2:AC3)</f>
+      </c>
+      <c r="AD4" s="3" t="str">
+        <f>Sum(AD2:AD3)</f>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f>Sum(AE2:AE3)</f>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <f>Sum(AF2:AF3)</f>
+      </c>
+      <c r="AG4" s="3" t="str">
+        <f>Sum(AG2:AG3)</f>
+      </c>
+      <c r="AH4" s="3" t="str">
+        <f>Sum(AH2:AH3)</f>
+      </c>
+      <c r="AI4" s="3" t="str">
+        <f>Sum(AI2:AI3)</f>
+      </c>
+      <c r="AJ4" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>3729167.94153235</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="n">
+        <v>82216.4944254264</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>64056.3103841582</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>209019.40499118</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>7085908.58107547</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>644380.679400158</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>40563.6560636488</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>17643.0858859317</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="n">
+        <v>244948.941308546</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>-8034.42317944838</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>10703123.2496955</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>1313257.66861844</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>399260.208430298</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>7265442.18334946</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>6631479.85243937</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>2148666.8279668</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>4316857.245</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>45038769.6677191</v>
+      </c>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="n">
+        <v>-864785.545111672</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>3767684.51118348</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>62347619.2062962</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>48167583.2096791</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>205673282.68561</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>232246418.133735</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>167574332.13919</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>158591921.137805</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>143943980.01716</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>152318079.408318</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>44754865.2095828</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>22390342.4557789</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>2206168.12080743</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>235287.525320804</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>3804.31843591071</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>382997.570791336</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>305916.43433942</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>55912277.9844</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>26276301.0105284</v>
+      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="n">
+        <v>2646393</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>23697625</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>16416947.633</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>16650900.232</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>26746303.2908</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>18819273.2686</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>6660288.8594</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>66467.89</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>30333577</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1816136</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>936820.3359</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1550330.7578</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>54670</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>6216.41840000001</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>342303.8828</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>292534</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>55912277.9844</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>26978035.59</v>
+      </c>
+      <c r="AJ2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>2606788.2969</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1385698</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>176869.7188</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>140007.595</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>220901.87</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>208793.875</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>222623.875</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4" t="n">
+        <v>161180.6883</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>70814.75</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4" t="n">
+        <v>63104.45</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2352000</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>-558742</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="n">
+        <v>20379743</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>18461604</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>135706018.4127</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>142963655.6701</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>106792348.4037</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>114359575.2033</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>111579449.56</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>90992327.43</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>35592377.77</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>17092500.8832</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>8869572.1981</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1099706.7169</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>340517.5742</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>6206617.7657</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>5926881.7228</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2054672.5553</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>4316857.245</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>46241574.51</v>
+      </c>
+      <c r="AJ5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="n">
+        <v>-848374.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>-1867141.44</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>-200380.3832</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>-67208.2694</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4" t="n">
+        <v>-15180.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>-2929.4399</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="4" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="4" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="4" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="4" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="4" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="4" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="4" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="4" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="4" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="4" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="4" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="4" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="4" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="4" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="n">
+        <v>3849901.00560891</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>33551021.624246</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>22770330.6073086</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>22861043.6413842</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>36406347.474479</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>25112250.6489733</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>8729025.78246185</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>85560.8491988323</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>38347346.1522467</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>2272403.86958096</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>1162880.3991481</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>1892488.75641001</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>64101.1132719517</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>7194.82501161918</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>382997.570791336</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>305916.43433942</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>55912277.9844</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>26276301.0105284</v>
+      </c>
+      <c r="AJ11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="n">
+        <v>7078.98399612747</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>3579019.76403365</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>1886174.78588316</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>227675.699320178</v>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v>176995.931254945</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>276399.049512631</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v>259177.021884798</v>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v>271756.964264704</v>
+      </c>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4" t="n">
+        <v>188985.943990661</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>81960.3349883203</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4" t="n">
+        <v>79775.8928298217</v>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>3729167.94153235</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>-864785.545111672</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="n">
+        <v>28853574.9084382</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>25606272.0073617</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>186319127.861268</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>194598276.552773</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>142502645.146281</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>149880538.441229</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>143630743.468641</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>115031414.763804</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>44534251.2742082</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>21217018.3415153</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>10827086.7843006</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>1313257.66861844</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>399260.208430298</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>7183481.84836114</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>6631479.85243937</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>2148666.8279668</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>4316857.245</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>45038769.6677191</v>
+      </c>
+      <c r="AJ14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4" t="n">
+        <v>-1072504.39050936</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>-2336223.40689848</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>-248733.306769226</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>-82041.1344723401</v>
+      </c>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4" t="n">
+        <v>-17799.5319418081</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>-3390.50657570847</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/PBL/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -189,11 +189,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -229,12 +230,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3285,66 +3287,66 @@
       <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="n">
         <v>2646393</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="5" t="n">
         <v>23697625</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="5" t="n">
         <v>16416947.633</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="5" t="n">
         <v>16650900.232</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>26746303.2908</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>18819273.2686</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>6660288.8594</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>66467.89</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>30333577</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>1816136</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>936820.3359</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>1550330.7578</v>
       </c>
-      <c r="AC2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5" t="n">
         <v>54670</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>6216.41840000001</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>342303.8828</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>292534</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="5" t="n">
         <v>55912277.9844</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="5" t="n">
         <v>26978035.59</v>
       </c>
-      <c r="AJ2" s="4"/>
+      <c r="AJ2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3359,56 +3361,56 @@
       <c r="N3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
+      <c r="S3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="n">
         <v>2606788.2969</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <v>1385698</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4" t="n">
+      <c r="V3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5" t="n">
         <v>176869.7188</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>140007.595</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
         <v>220901.87</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>208793.875</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>222623.875</v>
       </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4" t="n">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5" t="n">
         <v>161180.6883</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>70814.75</v>
       </c>
-      <c r="AF3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
+      <c r="AF3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3423,30 +3425,30 @@
       <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5" t="n">
         <v>63104.45</v>
       </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3461,68 +3463,68 @@
       <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>2352000</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="5" t="n">
         <v>-558742</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="n">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="n">
         <v>20379743</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="5" t="n">
         <v>18461604</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="5" t="n">
         <v>135706018.4127</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="5" t="n">
         <v>142963655.6701</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="5" t="n">
         <v>106792348.4037</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>114359575.2033</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="5" t="n">
         <v>111579449.56</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="5" t="n">
         <v>90992327.43</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="5" t="n">
         <v>35592377.77</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="5" t="n">
         <v>17092500.8832</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="5" t="n">
         <v>8869572.1981</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="5" t="n">
         <v>1099706.7169</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="5" t="n">
         <v>340517.5742</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="5" t="n">
         <v>6206617.7657</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="5" t="n">
         <v>5926881.7228</v>
       </c>
-      <c r="AG5" s="4" t="n">
+      <c r="AG5" s="5" t="n">
         <v>2054672.5553</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AH5" s="5" t="n">
         <v>4316857.245</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="AI5" s="5" t="n">
         <v>46241574.51</v>
       </c>
-      <c r="AJ5" s="4"/>
+      <c r="AJ5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3537,48 +3539,48 @@
       <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5" t="n">
         <v>-848374.08</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="Z6" s="5" t="n">
         <v>-1867141.44</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="5" t="n">
         <v>-200380.3832</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="5" t="n">
         <v>-67208.2694</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4" t="n">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5" t="n">
         <v>-15180.71</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="5" t="n">
         <v>-2929.4399</v>
       </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3593,70 +3595,70 @@
       <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="O7" s="5" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="P7" s="5" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="Q7" s="5" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="R7" s="5" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="S7" s="5" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="4" t="str">
+      <c r="T7" s="5" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="4" t="str">
+      <c r="U7" s="5" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="5" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="4" t="str">
+      <c r="W7" s="5" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="4" t="str">
+      <c r="X7" s="5" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="4" t="str">
+      <c r="Y7" s="5" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="4" t="str">
+      <c r="Z7" s="5" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="4" t="str">
+      <c r="AA7" s="5" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="4" t="str">
+      <c r="AB7" s="5" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="4" t="str">
+      <c r="AC7" s="5" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="4" t="str">
+      <c r="AD7" s="5" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="4" t="str">
+      <c r="AE7" s="5" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="4" t="str">
+      <c r="AF7" s="5" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="4" t="str">
+      <c r="AG7" s="5" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="4" t="str">
+      <c r="AH7" s="5" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="4" t="str">
+      <c r="AI7" s="5" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="4"/>
+      <c r="AJ7" s="5"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3748,66 +3750,66 @@
       <c r="N11" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="n">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="n">
         <v>3849901.00560891</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="5" t="n">
         <v>33551021.624246</v>
       </c>
-      <c r="S11" s="4" t="n">
+      <c r="S11" s="5" t="n">
         <v>22770330.6073086</v>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="T11" s="5" t="n">
         <v>22861043.6413842</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="5" t="n">
         <v>36406347.474479</v>
       </c>
-      <c r="V11" s="4" t="n">
+      <c r="V11" s="5" t="n">
         <v>25112250.6489733</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="5" t="n">
         <v>8729025.78246185</v>
       </c>
-      <c r="X11" s="4" t="n">
+      <c r="X11" s="5" t="n">
         <v>85560.8491988323</v>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>38347346.1522467</v>
       </c>
-      <c r="Z11" s="4" t="n">
+      <c r="Z11" s="5" t="n">
         <v>2272403.86958096</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <v>1162880.3991481</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="5" t="n">
         <v>1892488.75641001</v>
       </c>
-      <c r="AC11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="4" t="n">
+      <c r="AC11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5" t="n">
         <v>64101.1132719517</v>
       </c>
-      <c r="AE11" s="4" t="n">
+      <c r="AE11" s="5" t="n">
         <v>7194.82501161918</v>
       </c>
-      <c r="AF11" s="4" t="n">
+      <c r="AF11" s="5" t="n">
         <v>382997.570791336</v>
       </c>
-      <c r="AG11" s="4" t="n">
+      <c r="AG11" s="5" t="n">
         <v>305916.43433942</v>
       </c>
-      <c r="AH11" s="4" t="n">
+      <c r="AH11" s="5" t="n">
         <v>55912277.9844</v>
       </c>
-      <c r="AI11" s="4" t="n">
+      <c r="AI11" s="5" t="n">
         <v>26276301.0105284</v>
       </c>
-      <c r="AJ11" s="4"/>
+      <c r="AJ11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3822,56 +3824,56 @@
       <c r="N12" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="n">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5" t="n">
         <v>7078.98399612747</v>
       </c>
-      <c r="S12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4" t="n">
+      <c r="S12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5" t="n">
         <v>3579019.76403365</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <v>1886174.78588316</v>
       </c>
-      <c r="V12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4" t="n">
+      <c r="V12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5" t="n">
         <v>227675.699320178</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>176995.931254945</v>
       </c>
-      <c r="Z12" s="4" t="n">
+      <c r="Z12" s="5" t="n">
         <v>276399.049512631</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="5" t="n">
         <v>259177.021884798</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="5" t="n">
         <v>271756.964264704</v>
       </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4" t="n">
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5" t="n">
         <v>188985.943990661</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="5" t="n">
         <v>81960.3349883203</v>
       </c>
-      <c r="AF12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
+      <c r="AF12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3886,30 +3888,30 @@
       <c r="N13" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4" t="n">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5" t="n">
         <v>79775.8928298217</v>
       </c>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3924,68 +3926,68 @@
       <c r="N14" t="s">
         <v>55</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="5" t="n">
         <v>3729167.94153235</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="5" t="n">
         <v>-864785.545111672</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4" t="n">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5" t="n">
         <v>28853574.9084382</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="5" t="n">
         <v>25606272.0073617</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="5" t="n">
         <v>186319127.861268</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="5" t="n">
         <v>194598276.552773</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="5" t="n">
         <v>142502645.146281</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="5" t="n">
         <v>149880538.441229</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="5" t="n">
         <v>143630743.468641</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>115031414.763804</v>
       </c>
-      <c r="Z14" s="4" t="n">
+      <c r="Z14" s="5" t="n">
         <v>44534251.2742082</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="5" t="n">
         <v>21217018.3415153</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="5" t="n">
         <v>10827086.7843006</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="5" t="n">
         <v>1313257.66861844</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="5" t="n">
         <v>399260.208430298</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="5" t="n">
         <v>7183481.84836114</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AF14" s="5" t="n">
         <v>6631479.85243937</v>
       </c>
-      <c r="AG14" s="4" t="n">
+      <c r="AG14" s="5" t="n">
         <v>2148666.8279668</v>
       </c>
-      <c r="AH14" s="4" t="n">
+      <c r="AH14" s="5" t="n">
         <v>4316857.245</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="5" t="n">
         <v>45038769.6677191</v>
       </c>
-      <c r="AJ14" s="4"/>
+      <c r="AJ14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4000,48 +4002,48 @@
       <c r="N15" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4" t="n">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5" t="n">
         <v>-1072504.39050936</v>
       </c>
-      <c r="Z15" s="4" t="n">
+      <c r="Z15" s="5" t="n">
         <v>-2336223.40689848</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="5" t="n">
         <v>-248733.306769226</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="5" t="n">
         <v>-82041.1344723401</v>
       </c>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4" t="n">
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5" t="n">
         <v>-17799.5319418081</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="5" t="n">
         <v>-3390.50657570847</v>
       </c>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="4"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4050,28 +4052,28 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/PBL/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -190,11 +190,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -232,11 +232,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
